--- a/Orders/purchase_tracker.xlsx
+++ b/Orders/purchase_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgri\Morpheus_admin\Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C4CD12-F211-4C11-A65F-F5094B488691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB6583-9AF6-4480-BC22-B5D6A4C33FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{09E94074-E0C4-45B9-9612-A4517293CB97}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="C2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,8 +760,8 @@
     <hyperlink ref="I4" r:id="rId2" xr:uid="{C38A9C46-F75F-4173-92C7-FD6C2E509235}"/>
     <hyperlink ref="I7" r:id="rId3" xr:uid="{73305056-9C62-49CD-ABF1-FACB3F5F09DE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
   <tableParts count="1">
     <tablePart r:id="rId6"/>
